--- a/progress.xlsx
+++ b/progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\edu\test\AvoidTrapCoopProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0511F40-98E1-444E-9E0A-334DD811C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61444DB5-6551-4C86-B653-090662A63074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-555" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>우선순위</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>캐릭터의 디버프 상태 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project_Coordinate.cpp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,6 +524,60 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,71 +585,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -606,174 +614,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA1E4F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA1E4F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA1E4F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA1E4F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA1E4F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA1E4F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF77BBF9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF77BBF9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF77BBF9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF77BBF9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1066,72 +906,73 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="8"/>
     <col min="6" max="18" width="9" style="12"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1140,26 +981,26 @@
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="9">
         <v>0.5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1168,26 +1009,26 @@
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="6">
         <v>0.5</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1196,54 +1037,54 @@
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="6">
         <v>0.3</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1252,26 +1093,30 @@
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1280,634 +1125,634 @@
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="6">
         <v>0.7</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="19"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="19"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="6">
         <v>0</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="6">
         <v>0</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="19"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6">
         <v>0</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="19"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6">
         <v>0</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6">
         <v>0</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="19"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="6">
         <v>0</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="19"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="19"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="19"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="6">
         <v>0</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="19"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="6">
         <v>0</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="19"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="6">
         <v>0</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="19"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="19"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="25"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="7">
         <v>1</v>
       </c>
@@ -1929,30 +1774,6 @@
   <sheetProtection selectLockedCells="1"/>
   <autoFilter ref="A2:A34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="34">
-    <mergeCell ref="F34:R34"/>
-    <mergeCell ref="F28:R28"/>
-    <mergeCell ref="F29:R29"/>
-    <mergeCell ref="F30:R30"/>
-    <mergeCell ref="F31:R31"/>
-    <mergeCell ref="F32:R32"/>
-    <mergeCell ref="F33:R33"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F27:R27"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
     <mergeCell ref="F15:R15"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="F2:R2"/>
@@ -1963,6 +1784,30 @@
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="F8:R8"/>
     <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F34:R34"/>
+    <mergeCell ref="F28:R28"/>
+    <mergeCell ref="F29:R29"/>
+    <mergeCell ref="F30:R30"/>
+    <mergeCell ref="F31:R31"/>
+    <mergeCell ref="F32:R32"/>
+    <mergeCell ref="F33:R33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:E1048576">
